--- a/1 Sistema/Base de Datos/Tablas DB.xlsx
+++ b/1 Sistema/Base de Datos/Tablas DB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3 Bibliotecas\Desktop\Proyeco Mixiote\Documentación\Base de Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELFINO\Google Drive\Proyecto Mixiote\1 Sistema\Base de Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{968658AC-5B36-4212-942D-47DC13BE7798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6AE704DF-9946-4271-8858-77C13DEABD52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{240CC93E-1273-4AD3-BBCC-31D6B1937CF5}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,6 +56,79 @@
 De esta manera
 sus datos solo se
 piden una vez.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{F140BB79-4C2D-44E9-AE1E-C071E243B7B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Antes era idMesero.
+Se realizó el cambio porque a veces los volanteros llegan a realizar la función de los meseros.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{1F707F02-EAA2-408B-8ACE-AE342F48889C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha de cuando el empleado se unió al restaurante</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{19AF5CD9-B745-4E60-9B43-8DB6D1DA681A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha de cuando el empleado renunció al restaurante</t>
         </r>
       </text>
     </comment>
@@ -108,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{349556C1-940B-4CA6-BEF8-D609A0DE16A6}">
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{1AF1AF15-624A-4CB1-B461-B92F5E92D8BD}">
       <text>
         <r>
           <rPr>
@@ -128,7 +200,128 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Solamente se vinculará a la tabla Cliente si el comensal indica que ya ha estado antes en el restaurante, y esto se confirma.</t>
+Cambiar a Not Null cuando la hora de entrada cobre mayor relevancia dentro del sistema. Por ejemplo, con un checador</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{329C645A-B7B1-41A0-8BBB-3C77111055CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se inidica la fecha en la que el platillo comenzó a formar parte del menú. Esto sirve para calcular el tiempo que tiene el platillo sirviendose en el restaurante</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{C2986819-81A2-4792-9375-85FC10DA68E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se crea la tabla cuando se inicia el sistema. Así es más fácil marcar el estado ocuapdo o libre de las mesas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{3008196E-DC6A-4A90-B307-33CF203212B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aplica cuando se regalan platillos o bebidas al cliente o cuando se condona un monto del consumo de la cuenta generada por el cliente</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0" shapeId="0" xr:uid="{88F2DC51-17AC-48F7-9DA0-D42F7FCE9D4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aquí se guardará el folio de la venta cuando el gerente la asigne como ocupada.
+Así mismo, este campo se actualizará (limpiará) cuando la mesa se haya liberado.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{C488F32D-A4AC-436F-BD29-4D2044E23D7D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Inidica la fecha en que se conectó con el proveedor por primera vez</t>
         </r>
       </text>
     </comment>
@@ -137,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
     <t>Venta</t>
   </si>
@@ -145,215 +338,540 @@
     <t>folioVenta</t>
   </si>
   <si>
+    <t>nPersonas</t>
+  </si>
+  <si>
+    <t>horaEntrada</t>
+  </si>
+  <si>
+    <t>horaSalida</t>
+  </si>
+  <si>
+    <t>Folio</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>idPlatillo</t>
+  </si>
+  <si>
+    <t>idCliente</t>
+  </si>
+  <si>
+    <t>fechaHoy</t>
+  </si>
+  <si>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>FormacionMesa</t>
+  </si>
+  <si>
+    <t>tel2</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apePaterno</t>
+  </si>
+  <si>
+    <t>apeMaterno</t>
+  </si>
+  <si>
+    <t>tel1</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>idFactura</t>
+  </si>
+  <si>
+    <t>fechaFactu</t>
+  </si>
+  <si>
+    <t>idEmplado</t>
+  </si>
+  <si>
+    <t>fechaNac</t>
+  </si>
+  <si>
+    <t>parteFrontal</t>
+  </si>
+  <si>
+    <t>jardin</t>
+  </si>
+  <si>
+    <t>varchar (10)</t>
+  </si>
+  <si>
+    <t>Definición</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>varchar (30)</t>
+  </si>
+  <si>
+    <t>idEmpleado</t>
+  </si>
+  <si>
+    <t>puesto</t>
+  </si>
+  <si>
+    <t>sueldo</t>
+  </si>
+  <si>
+    <t>hEntrada</t>
+  </si>
+  <si>
+    <t>idPuesto</t>
+  </si>
+  <si>
+    <t>Propina</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t>platillo</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>fechaInicio</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>precioCompra</t>
+  </si>
+  <si>
+    <t>precioVenta</t>
+  </si>
+  <si>
+    <t>fechaCompra</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>idProveedor</t>
+  </si>
+  <si>
+    <t>fechaVinculacion</t>
+  </si>
+  <si>
+    <t>nombreComercial</t>
+  </si>
+  <si>
+    <t>gerente</t>
+  </si>
+  <si>
+    <t>varchar (12)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>idMesa</t>
+  </si>
+  <si>
+    <t>nombreMesa</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>nCuentas</t>
+  </si>
+  <si>
     <t>mesa</t>
   </si>
   <si>
-    <t>mesero</t>
-  </si>
-  <si>
-    <t>nPersonas</t>
-  </si>
-  <si>
-    <t>horaEntrada</t>
-  </si>
-  <si>
-    <t>horaSalida</t>
-  </si>
-  <si>
-    <t>totalConsumo</t>
-  </si>
-  <si>
-    <t>Folio</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>idPlatillo</t>
-  </si>
-  <si>
-    <t>idCliente</t>
-  </si>
-  <si>
-    <t>fechaHoy</t>
-  </si>
-  <si>
-    <t>cuenta</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Empleado</t>
-  </si>
-  <si>
-    <t>FormacionMesa</t>
-  </si>
-  <si>
-    <t>tel2</t>
-  </si>
-  <si>
-    <t>ciudad</t>
-  </si>
-  <si>
-    <t>pais</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>apePaterno</t>
-  </si>
-  <si>
-    <t>apeMaterno</t>
-  </si>
-  <si>
-    <t>tel1</t>
-  </si>
-  <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Factura</t>
-  </si>
-  <si>
-    <t>idFactura</t>
-  </si>
-  <si>
-    <t>fechaFactu</t>
-  </si>
-  <si>
-    <t>idEmplado</t>
-  </si>
-  <si>
-    <t>fechaNac</t>
-  </si>
-  <si>
-    <t>fechaIngresoL</t>
-  </si>
-  <si>
-    <t>fechaSalidaL</t>
-  </si>
-  <si>
-    <t>parteFrontal</t>
-  </si>
-  <si>
-    <t>jardin</t>
-  </si>
-  <si>
-    <t>varchar (10)</t>
-  </si>
-  <si>
-    <t>Definición</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>identity (1,1)</t>
-  </si>
-  <si>
-    <t>varchar (30)</t>
-  </si>
-  <si>
-    <t>idEmpleado</t>
-  </si>
-  <si>
-    <t>tipoPersonal</t>
-  </si>
-  <si>
-    <t>puesto</t>
-  </si>
-  <si>
-    <t>sueldo</t>
-  </si>
-  <si>
-    <t>double (6,2)</t>
-  </si>
-  <si>
-    <t>hEntrada</t>
-  </si>
-  <si>
-    <t>idPuesto</t>
-  </si>
-  <si>
-    <t>Propina</t>
-  </si>
-  <si>
-    <t>Inventario</t>
-  </si>
-  <si>
-    <t>Compra</t>
-  </si>
-  <si>
-    <t>platillo</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>fechaInicio</t>
-  </si>
-  <si>
-    <t>varchar (100)</t>
-  </si>
-  <si>
-    <t>producto</t>
-  </si>
-  <si>
-    <t>precioCompra</t>
-  </si>
-  <si>
-    <t>precioVenta</t>
-  </si>
-  <si>
-    <t>fechaCompra</t>
-  </si>
-  <si>
-    <t>Proveedor</t>
-  </si>
-  <si>
-    <t>idProveedor</t>
-  </si>
-  <si>
-    <t>fechaVinculacion</t>
-  </si>
-  <si>
-    <t>nombreComercial</t>
-  </si>
-  <si>
-    <t>varchar (50)</t>
-  </si>
-  <si>
-    <t>gerente</t>
-  </si>
-  <si>
-    <t>varchar (60)</t>
-  </si>
-  <si>
-    <t>varchar (12)</t>
-  </si>
-  <si>
-    <t>varchar (70)</t>
+    <t>pago</t>
+  </si>
+  <si>
+    <t>PagoCuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesa
+</t>
+  </si>
+  <si>
+    <t>rfc</t>
+  </si>
+  <si>
+    <t>fechaIngresoR</t>
+  </si>
+  <si>
+    <t>fechaSalidaR</t>
+  </si>
+  <si>
+    <t>TipoPersonal</t>
+  </si>
+  <si>
+    <t>int identity (1,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (24) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">decimal (6,2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (30) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (10) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (12) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (60) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">double (6,2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (70) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dateTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (50) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar (30) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (100) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Not Null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Default 'NA'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (70) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Not Null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Default 'NA' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (12) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Not Null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Default 'NA'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (30) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Not Null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Default 'NA'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (70) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Not Null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Default 'NA'</t>
+    </r>
+  </si>
+  <si>
+    <t>Cortesia</t>
+  </si>
+  <si>
+    <t>int identity(1,1)</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (7) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Null</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +918,20 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +944,20 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -432,11 +974,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -450,11 +1040,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="63">
     <dxf>
       <font>
         <b val="0"/>
@@ -633,6 +1271,9 @@
         <left style="thin">
           <color theme="1"/>
         </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -713,6 +1354,67 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -754,25 +1456,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -785,16 +1468,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -822,6 +1495,35 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -866,25 +1568,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -897,19 +1580,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -937,6 +1607,35 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -981,25 +1680,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1012,16 +1692,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1051,119 +1721,16 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
         <top style="thin">
           <color theme="1"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1228,25 +1795,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1259,19 +1807,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1305,159 +1840,9 @@
         <left style="thin">
           <color theme="1"/>
         </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
         <top style="thin">
           <color theme="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1534,6 +1919,35 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="1"/>
@@ -1589,6 +2003,458 @@
         </patternFill>
       </fill>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1661,121 +2527,143 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C17145DC-9798-4443-8AD7-BDE7DE374BC4}" name="Tabla1" displayName="Tabla1" ref="C2:D10" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C17145DC-9798-4443-8AD7-BDE7DE374BC4}" name="Tabla1" displayName="Tabla1" ref="C2:D10" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="C2:D10" xr:uid="{1118343F-5A8F-4001-B639-0AFFA064222B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{991927AF-DD8F-4AA5-AFCA-6689C60D78A4}" name="Folio" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{DCB82A53-1BC3-4513-8DA9-4A08C0DFA0ED}" name="Definición" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{991927AF-DD8F-4AA5-AFCA-6689C60D78A4}" name="Folio" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{DCB82A53-1BC3-4513-8DA9-4A08C0DFA0ED}" name="Definición" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{73EE532D-6B13-4DEC-B623-873ABBAE4E07}" name="Tabla812" displayName="Tabla812" ref="O18:P22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="O18:P22" xr:uid="{17049A5C-273C-444B-B6EB-67F9187A9DD3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{73EE532D-6B13-4DEC-B623-873ABBAE4E07}" name="Tabla812" displayName="Tabla812" ref="O18:P23" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="O18:P23" xr:uid="{17049A5C-273C-444B-B6EB-67F9187A9DD3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{44387E2D-3C90-456E-B7AB-A79DE556CEC8}" name="Compra" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{5DC82C1E-2601-4C18-9E0B-EE694708DA13}" name="Definición" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{44387E2D-3C90-456E-B7AB-A79DE556CEC8}" name="Compra" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5DC82C1E-2601-4C18-9E0B-EE694708DA13}" name="Definición" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3143DA17-7AF7-4247-916D-833FEEB976F0}" name="Tabla613" displayName="Tabla613" ref="C27:D35" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3143DA17-7AF7-4247-916D-833FEEB976F0}" name="Tabla613" displayName="Tabla613" ref="C27:D35" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="C27:D35" xr:uid="{D9931799-E64E-44C1-8915-07BC1C6FD13A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D1E3556-67A1-43D6-B136-6A89BCC0041C}" name="Proveedor" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{0EBF07A1-3C21-4A16-9114-D525B771C148}" name="Definición" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0D1E3556-67A1-43D6-B136-6A89BCC0041C}" name="Proveedor" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{0EBF07A1-3C21-4A16-9114-D525B771C148}" name="Definición" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{26E74681-4B6F-4476-98E3-72A0C5A7A79C}" name="Tabla7" displayName="Tabla7" ref="F27:G30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="F27:G30" xr:uid="{224D5A22-6D51-40A3-BB9A-7D54DE20963B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2F3675B0-474F-43B3-A303-5D90AF877445}" name="Mesa_x000a_" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2191F4C0-5C44-4C71-9600-1921CE76FBDB}" name="Definición" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4E06955F-BC17-4449-8860-612E127BB6D8}" name="Tabla714" displayName="Tabla714" ref="I27:J30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="I27:J30" xr:uid="{97B54B45-307E-4329-AA8D-7764E2A9B27F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{858DE899-167D-4058-88E6-BC401C667C64}" name="Cortesia" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7D1AB24A-F1FE-4CE8-A3A0-8A5C82AB1367}" name="Definición" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C553A03-80B8-4C7B-B9ED-CB89E558DF5E}" name="Tabla2" displayName="Tabla2" ref="F2:G7" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C553A03-80B8-4C7B-B9ED-CB89E558DF5E}" name="Tabla2" displayName="Tabla2" ref="F2:G7" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
   <autoFilter ref="F2:G7" xr:uid="{6750E5D2-7E7C-4F87-8A77-C9972DD7E07B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8F75B201-AD5D-444D-82A9-5DB1685FF3EC}" name="Venta" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{E2465F75-9BC2-4FB2-88EA-1D08C4EB83D9}" name="Definición" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{8F75B201-AD5D-444D-82A9-5DB1685FF3EC}" name="Venta" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{E2465F75-9BC2-4FB2-88EA-1D08C4EB83D9}" name="Definición" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4BBA6C4-5408-4E39-A256-2C11C84C13C6}" name="Tabla3" displayName="Tabla3" ref="I2:J11" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="I2:J11" xr:uid="{75453999-D4E2-4BF1-8155-67B48C747733}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4BBA6C4-5408-4E39-A256-2C11C84C13C6}" name="Tabla3" displayName="Tabla3" ref="I2:J12" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="I2:J12" xr:uid="{75453999-D4E2-4BF1-8155-67B48C747733}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{47B7ECD1-8E9A-4E97-AEC5-356C1515EAA2}" name="Cliente" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{48702ED4-A9B7-4E18-B525-478C5C64CB30}" name="Definición" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{47B7ECD1-8E9A-4E97-AEC5-356C1515EAA2}" name="Cliente_x000a_" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{48702ED4-A9B7-4E18-B525-478C5C64CB30}" name="Definición" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A45E53C7-A325-46D5-A5B3-02F5E9C2BF56}" name="Tabla4" displayName="Tabla4" ref="L2:M13" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A45E53C7-A325-46D5-A5B3-02F5E9C2BF56}" name="Tabla4" displayName="Tabla4" ref="L2:M13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="L2:M13" xr:uid="{7684B62F-5F5F-49E3-A994-2FEFFB19E289}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C013B370-7954-47C5-A9AA-75E137CACF3B}" name="Empleado" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{82E1441E-FD89-4A74-A255-897BE7F6BE74}" name="Definición" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{C013B370-7954-47C5-A9AA-75E137CACF3B}" name="Empleado" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{82E1441E-FD89-4A74-A255-897BE7F6BE74}" name="Definición" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1B895FA8-7B9D-4ACB-AC05-2CD2B7C2C279}" name="Tabla5" displayName="Tabla5" ref="O2:P5" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1B895FA8-7B9D-4ACB-AC05-2CD2B7C2C279}" name="Tabla5" displayName="Tabla5" ref="O2:P5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="O2:P5" xr:uid="{8B38EC39-2792-4F67-BC62-B92CDD06839E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{93EEA5DC-C574-4E0D-AADF-E213147105FB}" name="FormacionMesa" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{D0BBC8BD-502C-4146-B88F-AAD0F32E6A01}" name="Definición" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{93EEA5DC-C574-4E0D-AADF-E213147105FB}" name="FormacionMesa" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{D0BBC8BD-502C-4146-B88F-AAD0F32E6A01}" name="Definición" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D70982D8-4CB2-4B3D-8F77-9729C343CC53}" name="Tabla6" displayName="Tabla6" ref="C18:D22" totalsRowShown="0" headerRowDxfId="31" dataDxfId="32" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D70982D8-4CB2-4B3D-8F77-9729C343CC53}" name="Tabla6" displayName="Tabla6" ref="C18:D22" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="C18:D22" xr:uid="{0B041510-26EA-4749-B032-5902E6E9C1FB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CBFC9AD9-1FCD-4122-9D1B-CD3F95EE8C6F}" name="Factura" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{ED067B5C-BA50-4DD6-8CB7-1D4A95A73952}" name="Definición" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{CBFC9AD9-1FCD-4122-9D1B-CD3F95EE8C6F}" name="Factura" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{ED067B5C-BA50-4DD6-8CB7-1D4A95A73952}" name="Definición" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3928942-8A58-49EB-8D33-ED0827DE6558}" name="Tabla8" displayName="Tabla8" ref="L18:M22" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3928942-8A58-49EB-8D33-ED0827DE6558}" name="Tabla8" displayName="Tabla8" ref="L18:M22" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="L18:M22" xr:uid="{944F2830-F87A-4A1A-A9B1-F39C2B62F62E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8E7A9342-BDFA-4C78-A1F4-5C8D8FB79070}" name="tipoPersonal" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{1E2634D5-3C19-4F6B-82D1-6AE142505982}" name="Definición" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{8E7A9342-BDFA-4C78-A1F4-5C8D8FB79070}" name="TipoPersonal" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{1E2634D5-3C19-4F6B-82D1-6AE142505982}" name="Definición" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3E883309-D4CF-444E-A87E-32A6ECB5543A}" name="Tabla9" displayName="Tabla9" ref="F18:G22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3E883309-D4CF-444E-A87E-32A6ECB5543A}" name="Tabla9" displayName="Tabla9" ref="F18:G22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="F18:G22" xr:uid="{27D27A8B-6877-43A5-9BE2-01FBBA99D091}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B694154B-592F-47B7-AF4C-ABD93E3044F1}" name="Propina" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{24B633B6-5CE1-47B5-8037-51353066649F}" name="Definición" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{B694154B-592F-47B7-AF4C-ABD93E3044F1}" name="Propina" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{24B633B6-5CE1-47B5-8037-51353066649F}" name="Definición" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E913F94D-DE3C-4972-922C-4463BDC8FBE5}" name="Tabla10" displayName="Tabla10" ref="I18:J24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E913F94D-DE3C-4972-922C-4463BDC8FBE5}" name="Tabla10" displayName="Tabla10" ref="I18:J24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="I18:J24" xr:uid="{87E4AF84-B7C5-4300-9F47-BE02F12C80EB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A19ACF2D-4E11-4C73-AB92-83C17DF23448}" name="Inventario" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{07D591C6-10FA-4089-BA9D-998A963A2583}" name="Definición" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A19ACF2D-4E11-4C73-AB92-83C17DF23448}" name="Inventario" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{07D591C6-10FA-4089-BA9D-998A963A2583}" name="Definición" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2080,15 +2968,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A028D55A-9A93-42A3-A675-5F246989E934}">
   <dimension ref="C2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="9" max="10" width="16.5703125" customWidth="1"/>
     <col min="12" max="13" width="17.85546875" customWidth="1"/>
@@ -2096,529 +2984,619 @@
     <col min="16" max="16" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="L3" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="M3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>38</v>
+      <c r="D6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="L13" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>28</v>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>36</v>
+      <c r="M21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>42</v>
+    <row r="22" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="4" t="s">
+    <row r="23" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="I23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="J23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>47</v>
+      <c r="P23" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="I24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="27" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>62</v>
+      <c r="C28" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="11">
+  <tableParts count="13">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -2630,6 +3608,8 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/1 Sistema/Base de Datos/Tablas DB.xlsx
+++ b/1 Sistema/Base de Datos/Tablas DB.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELFINO\Google Drive\Proyecto Mixiote\1 Sistema\Base de Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6AE704DF-9946-4271-8858-77C13DEABD52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9CE040CA-A930-4B98-AFC6-4B47C8B0B484}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{240CC93E-1273-4AD3-BBCC-31D6B1937CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,8 +79,79 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Antes era idMesero.
-Se realizó el cambio porque a veces los volanteros llegan a realizar la función de los meseros.</t>
+Se decidió eliminar la llave foránea para porder almacenar más de una mesa. Sucede lo mismo con el campo "mesa"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{9621838A-C4E4-4F8C-AC6C-6E59C3C2C74D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se cambió el tipo de dato a SmallDateTime debido a problemas de conversión de tipos en C#</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{30399000-F478-422A-A2AC-FC0F7ADD6375}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se cambió el tipo de dato a SmallDateTime debido a problemas de conversión de tipos en C#</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{9ED00BBB-9DF9-427B-97B1-906744385C48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DELFINO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se cambió el tipo de dato a SmallDateTime debido a problemas de conversión de tipos en C#</t>
         </r>
       </text>
     </comment>
@@ -587,7 +658,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">time </t>
+      <t xml:space="preserve">decimal (6,2) </t>
     </r>
     <r>
       <rPr>
@@ -601,7 +672,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">decimal (6,2) </t>
+      <t xml:space="preserve">varchar (30) </t>
     </r>
     <r>
       <rPr>
@@ -615,7 +686,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">varchar (30) </t>
+      <t xml:space="preserve">varchar (10) </t>
     </r>
     <r>
       <rPr>
@@ -629,7 +700,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">varchar (10) </t>
+      <t xml:space="preserve">varchar (12) </t>
     </r>
     <r>
       <rPr>
@@ -643,7 +714,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">varchar (12) </t>
+      <t xml:space="preserve">varchar (60) </t>
     </r>
     <r>
       <rPr>
@@ -657,7 +728,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">varchar (60) </t>
+      <t xml:space="preserve">double (6,2) </t>
     </r>
     <r>
       <rPr>
@@ -671,7 +742,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">double (6,2) </t>
+      <t xml:space="preserve">varchar (70) </t>
     </r>
     <r>
       <rPr>
@@ -685,7 +756,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">varchar (70) </t>
+      <t xml:space="preserve">dateTime </t>
     </r>
     <r>
       <rPr>
@@ -699,7 +770,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">dateTime </t>
+      <t xml:space="preserve">varchar (50) </t>
     </r>
     <r>
       <rPr>
@@ -712,8 +783,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">varchar (50) </t>
+    <t xml:space="preserve">varchar (30) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (100) </t>
     </r>
     <r>
       <rPr>
@@ -722,15 +796,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Not Null</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar (30) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">varchar (100) </t>
+      <t xml:space="preserve">Not Null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Default 'NA'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (70) </t>
     </r>
     <r>
       <rPr>
@@ -748,12 +828,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Default 'NA'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">varchar (70) </t>
+      <t xml:space="preserve">Default 'NA' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (12) </t>
     </r>
     <r>
       <rPr>
@@ -771,12 +851,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Default 'NA' </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">varchar (12) </t>
+      <t>Default 'NA'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (30) </t>
     </r>
     <r>
       <rPr>
@@ -799,7 +879,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">varchar (30) </t>
+      <t xml:space="preserve">varchar (70) </t>
     </r>
     <r>
       <rPr>
@@ -821,8 +901,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">varchar (70) </t>
+    <t>Cortesia</t>
+  </si>
+  <si>
+    <t>int identity(1,1)</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">varchar (7) </t>
     </r>
     <r>
       <rPr>
@@ -831,30 +920,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Not Null </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Default 'NA'</t>
-    </r>
-  </si>
-  <si>
-    <t>Cortesia</t>
-  </si>
-  <si>
-    <t>int identity(1,1)</t>
-  </si>
-  <si>
-    <t>descuento</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">varchar (7) </t>
+      <t>Not Null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SmallDateTime </t>
     </r>
     <r>
       <rPr>
@@ -2968,14 +3039,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A028D55A-9A93-42A3-A675-5F246989E934}">
   <dimension ref="C2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="9" max="10" width="16.5703125" customWidth="1"/>
@@ -3065,7 +3136,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>38</v>
@@ -3081,7 +3152,7 @@
       </c>
     </row>
     <row r="5" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -3097,13 +3168,13 @@
         <v>18</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>29</v>
@@ -3129,13 +3200,13 @@
         <v>19</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -3155,13 +3226,13 @@
         <v>64</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -3169,19 +3240,19 @@
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
@@ -3189,7 +3260,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>62</v>
@@ -3215,7 +3286,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>6</v>
@@ -3267,7 +3338,7 @@
         <v>22</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>65</v>
@@ -3281,7 +3352,7 @@
         <v>61</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>66</v>
@@ -3371,19 +3442,19 @@
         <v>42</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="3:16" ht="45" x14ac:dyDescent="0.25">
@@ -3403,19 +3474,19 @@
         <v>43</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -3429,13 +3500,13 @@
         <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>37</v>
@@ -3455,13 +3526,13 @@
         <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
@@ -3486,7 +3557,7 @@
         <v>31</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>31</v>
@@ -3503,13 +3574,13 @@
         <v>56</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -3517,13 +3588,13 @@
         <v>52</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>1</v>
@@ -3537,19 +3608,19 @@
         <v>53</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -3557,7 +3628,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
@@ -3573,7 +3644,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="3:4" ht="30" x14ac:dyDescent="0.25">
@@ -3581,7 +3652,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
